--- a/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.3_KS_Holdout_seed_999/metrics/Trial_323__Reeval_LHS_Modell_1.3.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.3_KS_Holdout_seed_999/metrics/Trial_323__Reeval_LHS_Modell_1.3.xlsx
@@ -5891,7 +5891,7 @@
                   <c:v>64.35295104980469</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>62.05991363525391</c:v>
+                  <c:v>62.05990600585938</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>68.11024475097656</c:v>
@@ -5906,13 +5906,13 @@
                   <c:v>73.29510498046875</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>71.977294921875</c:v>
+                  <c:v>71.97728729248047</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>69.13485717773438</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>73.84973907470703</c:v>
+                  <c:v>73.84974670410156</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>65.48533630371094</c:v>
@@ -5945,7 +5945,7 @@
                   <c:v>64.59819030761719</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>67.2987060546875</c:v>
+                  <c:v>67.29869842529297</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>56.71858978271484</c:v>
@@ -5969,7 +5969,7 @@
                   <c:v>70.21340942382812</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>68.60356140136719</c:v>
+                  <c:v>68.60355377197266</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>65.72245025634766</c:v>
@@ -6008,10 +6008,10 @@
                   <c:v>66.16980743408203</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>69.11071014404297</c:v>
+                  <c:v>69.1107177734375</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>62.57366180419922</c:v>
+                  <c:v>62.57366943359375</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>67.90518951416016</c:v>
@@ -6047,7 +6047,7 @@
                   <c:v>64.53589630126953</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>43.42361450195312</c:v>
+                  <c:v>43.42361831665039</c:v>
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>73.21900939941406</c:v>
@@ -6113,7 +6113,7 @@
                   <c:v>70.2744140625</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>68.81108093261719</c:v>
+                  <c:v>68.81107330322266</c:v>
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>63.63034057617188</c:v>
@@ -6140,7 +6140,7 @@
                   <c:v>69.51183319091797</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>66.13081359863281</c:v>
+                  <c:v>66.13080596923828</c:v>
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>61.19446563720703</c:v>
@@ -6161,7 +6161,7 @@
                   <c:v>68.27030944824219</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>64.32095336914062</c:v>
+                  <c:v>64.32094573974609</c:v>
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>67.85006713867188</c:v>
@@ -7051,7 +7051,7 @@
         <v>70.6229</v>
       </c>
       <c r="F8">
-        <v>62.05991363525391</v>
+        <v>62.05990600585938</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -7151,7 +7151,7 @@
         <v>50.4651</v>
       </c>
       <c r="F13">
-        <v>71.977294921875</v>
+        <v>71.97728729248047</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -7191,7 +7191,7 @@
         <v>51.3815</v>
       </c>
       <c r="F15">
-        <v>73.84973907470703</v>
+        <v>73.84974670410156</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -7411,7 +7411,7 @@
         <v>74.5719</v>
       </c>
       <c r="F26">
-        <v>67.2987060546875</v>
+        <v>67.29869842529297</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7571,7 +7571,7 @@
         <v>86.2996</v>
       </c>
       <c r="F34">
-        <v>68.60356140136719</v>
+        <v>68.60355377197266</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7831,7 +7831,7 @@
         <v>60.7068</v>
       </c>
       <c r="F47">
-        <v>69.11071014404297</v>
+        <v>69.1107177734375</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -7851,7 +7851,7 @@
         <v>65.1785</v>
       </c>
       <c r="F48">
-        <v>62.57366180419922</v>
+        <v>62.57366943359375</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -8091,7 +8091,7 @@
         <v>30.4312</v>
       </c>
       <c r="F60">
-        <v>43.42361450195312</v>
+        <v>43.42361831665039</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -8531,7 +8531,7 @@
         <v>59.0528</v>
       </c>
       <c r="F82">
-        <v>68.81108093261719</v>
+        <v>68.81107330322266</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -8711,7 +8711,7 @@
         <v>60.5769</v>
       </c>
       <c r="F91">
-        <v>66.13081359863281</v>
+        <v>66.13080596923828</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -8851,7 +8851,7 @@
         <v>69.08</v>
       </c>
       <c r="F98">
-        <v>64.32095336914062</v>
+        <v>64.32094573974609</v>
       </c>
     </row>
     <row r="99" spans="1:6">
